--- a/Assets/Partition(c0fba7c7-fa33-40de-a3ff-c101228e27c8)/Backlog(004F).xlsx
+++ b/Assets/Partition(c0fba7c7-fa33-40de-a3ff-c101228e27c8)/Backlog(004F).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ArticyUnannouncedProject\Assets\Partition(c0fba7c7-fa33-40de-a3ff-c101228e27c8)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43327B7-83FE-49FB-9C36-743D307628BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C36A7A-FAE7-4C0C-9DFE-0F4BC5DE861D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C8DE5CFE-5FE3-401B-9031-D30BD8D1F5DD}"/>
   </bookViews>
@@ -547,7 +547,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,6 +558,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -584,24 +590,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -609,7 +608,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -965,13 +976,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA5216A-5D7C-4B42-82B3-2EB1BFE4E033}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.90625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" style="2" customWidth="1"/>
     <col min="2" max="2" width="55.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -981,7 +992,7 @@
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1001,7 +1012,7 @@
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C7" t="s">
@@ -1009,7 +1020,7 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C8" t="s">
@@ -1017,7 +1028,7 @@
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>113</v>
       </c>
       <c r="C9" t="s">
@@ -1025,7 +1036,7 @@
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C10" t="s">
@@ -1075,7 +1086,7 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C19" t="s">
@@ -1083,7 +1094,7 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>129</v>
       </c>
       <c r="C20" t="s">
@@ -1091,7 +1102,7 @@
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>130</v>
       </c>
       <c r="C21" t="s">
@@ -1099,7 +1110,7 @@
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C22" t="s">
@@ -1112,82 +1123,82 @@
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="2:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="38" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="40" spans="2:4" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
+      <c r="B40" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
+      <c r="B41" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1212,42 +1223,42 @@
       </c>
     </row>
     <row r="46" spans="2:4" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" t="s">
+      <c r="B47" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
+      <c r="B48" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="7"/>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
+      <c r="B49" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
+      <c r="B50" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
+      <c r="B51" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1255,15 +1266,15 @@
       <c r="B52" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B53" t="s">
+      <c r="B53" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="4" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1271,15 +1282,15 @@
       <c r="B54" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1287,34 +1298,34 @@
       <c r="B56" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="6"/>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B57" t="s">
+      <c r="B57" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B59" t="s">
+      <c r="B59" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1322,7 +1333,7 @@
       <c r="B61" t="s">
         <v>105</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="5" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1330,37 +1341,37 @@
       <c r="B62" t="s">
         <v>106</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="4" t="s">
         <v>82</v>
       </c>
     </row>
